--- a/database.xlsx
+++ b/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriella\Documents\GitHub\Pandas-in-Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alysson\Documents\GitHub\Pandas-in-Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A17BAFF-7A92-493A-A473-F49366197D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4270CB-4937-430B-8F88-6DB94E9B32D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9189DDDE-D339-4817-8DF7-863ED2321851}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9189DDDE-D339-4817-8DF7-863ED2321851}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>age</t>
+  </si>
+  <si>
+    <t>Xuxu</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>Korg</t>
   </si>
 </sst>
 </file>
@@ -143,7 +155,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -439,18 +451,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E03771-B0A0-4C5E-B2A2-13E6B1F361F7}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -490,7 +502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -510,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -530,7 +542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -550,7 +562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -568,6 +580,46 @@
       </c>
       <c r="F6">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
